--- a/用例数据/股转/证券升降层/测试结果.xlsx
+++ b/用例数据/股转/证券升降层/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6547F59-A159-465C-A34D-DE341D702A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="398">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1209,12 +1210,24 @@
   </si>
   <si>
     <t>QYK_BJSDS</t>
+  </si>
+  <si>
+    <t>GZ11720611</t>
+  </si>
+  <si>
+    <t>000011720611</t>
+  </si>
+  <si>
+    <t>151162</t>
+  </si>
+  <si>
+    <t>77002084</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1533,7 +1546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4109,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4702,11 +4715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:EL24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="DM1" workbookViewId="0">
+      <selection activeCell="DY1" sqref="DY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6595,7 +6608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:EM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8509,7 +8522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8699,14 +8712,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -8850,7 +8866,7 @@
         <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>394</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>108</v>
@@ -8940,16 +8956,16 @@
         <v>91</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>87</v>
+        <v>395</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>87</v>
+        <v>395</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>88</v>
+        <v>394</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>101</v>
@@ -8964,7 +8980,131 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8981,11 +9121,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
